--- a/data/case1/18/P_device_11.xlsx
+++ b/data/case1/18/P_device_11.xlsx
@@ -57,31 +57,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.026787480626511196</v>
+        <v>-0.028139183361529554</v>
       </c>
       <c r="B1" s="0">
-        <v>0.026787480238206637</v>
+        <v>0.028139182556340344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.052377924902979177</v>
+        <v>0.051457562620976068</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.052377925280358242</v>
+        <v>-0.051457563404586806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.038294240103094193</v>
+        <v>-0.038188377719469327</v>
       </c>
       <c r="B3" s="0">
-        <v>0.038294239735825859</v>
+        <v>0.038188376958176465</v>
       </c>
     </row>
   </sheetData>
